--- a/acervo separado/Acervo_C_EmbalagensRecipientes.xlsx
+++ b/acervo separado/Acervo_C_EmbalagensRecipientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8437CBF-1052-46BA-95BA-9F766DFA9C34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF8EC66-C8B7-42C4-94C9-8AED3EA5C19E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$7</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$7</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,9 +114,6 @@
     <t>RT ARM1</t>
   </si>
   <si>
-    <t>Esmalte/metal</t>
-  </si>
-  <si>
     <t>Estojo</t>
   </si>
   <si>
@@ -122,9 +126,6 @@
     <t>Caixa com tampa</t>
   </si>
   <si>
-    <t>Madeira, bronze e espelho</t>
-  </si>
-  <si>
     <t>8,0 x 77,2 x 32,4 cm</t>
   </si>
   <si>
@@ -137,18 +138,12 @@
     <t>Caixa</t>
   </si>
   <si>
-    <t>Madeira (jacarandá)</t>
-  </si>
-  <si>
     <t>16,8 x 26,8 x 23,1 cm</t>
   </si>
   <si>
     <t>1554</t>
   </si>
   <si>
-    <t>Madeira, couro e veludo roxo</t>
-  </si>
-  <si>
     <t>16,0 x 14,5 x 7,0 cm</t>
   </si>
   <si>
@@ -161,9 +156,6 @@
     <t>Estojo (em forma de livro com inscrição: Missal d'Este/Am Gonçalves Netto)</t>
   </si>
   <si>
-    <t>Papelão/couro cor grená</t>
-  </si>
-  <si>
     <t>6,2 x 47,3 x 35,4 cm</t>
   </si>
   <si>
@@ -185,9 +177,6 @@
     <t>Estojo (para o objeto Wedwood "?")</t>
   </si>
   <si>
-    <t>Madeira, couro e veludo</t>
-  </si>
-  <si>
     <t>4,0 x 10,0 x 4,3 cm</t>
   </si>
   <si>
@@ -246,6 +235,24 @@
   </si>
   <si>
     <t>10,0cm</t>
+  </si>
+  <si>
+    <t>mattec_156</t>
+  </si>
+  <si>
+    <t>mattec_163</t>
+  </si>
+  <si>
+    <t>mattec_158</t>
+  </si>
+  <si>
+    <t>mattec_232</t>
+  </si>
+  <si>
+    <t>mattec_101</t>
+  </si>
+  <si>
+    <t>mattec_157</t>
   </si>
 </sst>
 </file>
@@ -631,7 +638,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,13 +716,13 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -723,19 +730,19 @@
         <v>1553</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -756,13 +763,13 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -770,19 +777,19 @@
         <v>1458</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -803,13 +810,13 @@
         <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -817,19 +824,19 @@
         <v>1554</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -850,13 +857,13 @@
         <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -864,19 +871,19 @@
         <v>1555</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -885,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -897,13 +904,13 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -911,19 +918,19 @@
         <v>1411</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -944,10 +951,10 @@
         <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="S6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -955,19 +962,19 @@
         <v>1406</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -988,13 +995,13 @@
         <v>24</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
